--- a/biology/Zoologie/Arctosa/Arctosa.xlsx
+++ b/biology/Zoologie/Arctosa/Arctosa.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Arctosa est un genre d'araignées aranéomorphes de la famille des Lycosidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Arctosa est un genre d'araignées aranéomorphes de la famille des Lycosidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les espèces de ce genre se rencontrent sur tous les continents sauf aux pôles et en Australie[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les espèces de ce genre se rencontrent sur tous les continents sauf aux pôles et en Australie.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon World Spider Catalog                                (version 25.0, 21/02/2024)[1] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon World Spider Catalog                                (version 25.0, 21/02/2024) :
 Arctosa albida (Simon, 1898)
 Arctosa albopellita (L. Koch, 1875)
 Arctosa algerina Roewer, 1960
@@ -743,15 +759,17 @@
           <t>Systématique et taxinomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce genre a été décrit par C. L. Koch en 1847.
-Triccosta[2] a été placé en synonymie par Braun en 1963[3].
-Leaena[4], Arctosella[2] et Tetrarctosa[2] ont été placés en synonymie par Lugetti et Tongiorgi en 1965[5].
-Tricca[6] et Arkalosula[2] ont été placés en synonymie par Dondale et Redner en 1983[7].
-Bonacosa[2] et Leaenella[2] ont été placés en synonymie en synonymie par Wunderlich en 1984[8].
-Alopecosella[2] a été placé en synonymie par Bosmans et Van Keer en 2012[9].
-Trochosomma[2] a été placé en synonymie par Marusik et Nadolny en 2020[10].
+Triccosta a été placé en synonymie par Braun en 1963.
+Leaena, Arctosella et Tetrarctosa ont été placés en synonymie par Lugetti et Tongiorgi en 1965.
+Tricca et Arkalosula ont été placés en synonymie par Dondale et Redner en 1983.
+Bonacosa et Leaenella ont été placés en synonymie en synonymie par Wunderlich en 1984.
+Alopecosella a été placé en synonymie par Bosmans et Van Keer en 2012.
+Trochosomma a été placé en synonymie par Marusik et Nadolny en 2020.
 </t>
         </is>
       </c>
@@ -780,7 +798,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>C. L. Koch, 1847 : Die Arachniden. Nürnberg, vol. 14, p. 89-210 (texte intégral).</t>
         </is>
